--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hp-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hp-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>Itgb2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Hp</t>
-  </si>
-  <si>
-    <t>Itgb2</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>1.719635666666666</v>
+      </c>
+      <c r="H2">
+        <v>5.158906999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.9346523298789767</v>
+      </c>
+      <c r="J2">
+        <v>0.9346523298789766</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>33.10268900000001</v>
-      </c>
-      <c r="H2">
-        <v>99.30806700000001</v>
-      </c>
-      <c r="I2">
-        <v>0.6442155376576644</v>
-      </c>
-      <c r="J2">
-        <v>0.6442155376576644</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="N2">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="O2">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="P2">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="Q2">
-        <v>2100.484555011577</v>
+        <v>0.1108815345747778</v>
       </c>
       <c r="R2">
-        <v>18904.36099510419</v>
+        <v>0.9979338111729998</v>
       </c>
       <c r="S2">
-        <v>0.2404894920530269</v>
+        <v>0.001029182045549597</v>
       </c>
       <c r="T2">
-        <v>0.2404894920530269</v>
+        <v>0.001029182045549596</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>33.10268900000001</v>
+        <v>1.719635666666666</v>
       </c>
       <c r="H3">
-        <v>99.30806700000001</v>
+        <v>5.158906999999999</v>
       </c>
       <c r="I3">
-        <v>0.6442155376576644</v>
+        <v>0.9346523298789767</v>
       </c>
       <c r="J3">
-        <v>0.6442155376576644</v>
+        <v>0.9346523298789766</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.155386</v>
       </c>
       <c r="O3">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="P3">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="Q3">
-        <v>12.74879447765134</v>
+        <v>0.6622809914557777</v>
       </c>
       <c r="R3">
-        <v>114.739150298862</v>
+        <v>5.960528923101999</v>
       </c>
       <c r="S3">
-        <v>0.001459639920181134</v>
+        <v>0.006147170564774249</v>
       </c>
       <c r="T3">
-        <v>0.001459639920181134</v>
+        <v>0.006147170564774249</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>1.719635666666666</v>
+      </c>
+      <c r="H4">
+        <v>5.158906999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.9346523298789767</v>
+      </c>
+      <c r="J4">
+        <v>0.9346523298789766</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>33.10268900000001</v>
-      </c>
-      <c r="H4">
-        <v>99.30806700000001</v>
-      </c>
-      <c r="I4">
-        <v>0.6442155376576644</v>
-      </c>
-      <c r="J4">
-        <v>0.6442155376576644</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M4">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="N4">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="O4">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="P4">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="Q4">
-        <v>0.6998239481490002</v>
+        <v>0.014058021575</v>
       </c>
       <c r="R4">
-        <v>6.298415533341001</v>
+        <v>0.126522194175</v>
       </c>
       <c r="S4">
-        <v>8.012451480080949E-05</v>
+        <v>0.0001304839751399865</v>
       </c>
       <c r="T4">
-        <v>8.012451480080949E-05</v>
+        <v>0.0001304839751399865</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>33.10268900000001</v>
+        <v>1.719635666666666</v>
       </c>
       <c r="H5">
-        <v>99.30806700000001</v>
+        <v>5.158906999999999</v>
       </c>
       <c r="I5">
-        <v>0.6442155376576644</v>
+        <v>0.9346523298789767</v>
       </c>
       <c r="J5">
-        <v>0.6442155376576644</v>
+        <v>0.9346523298789766</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="N5">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="O5">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="P5">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="Q5">
-        <v>3512.777479891443</v>
+        <v>99.90991566752299</v>
       </c>
       <c r="R5">
-        <v>31614.99731902299</v>
+        <v>899.189241007707</v>
       </c>
       <c r="S5">
-        <v>0.4021862811696555</v>
+        <v>0.927345493293513</v>
       </c>
       <c r="T5">
-        <v>0.4021862811696555</v>
+        <v>0.9273454932935129</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.719635666666667</v>
+        <v>0.120231</v>
       </c>
       <c r="H6">
-        <v>5.158907</v>
+        <v>0.360693</v>
       </c>
       <c r="I6">
-        <v>0.03346604306305637</v>
+        <v>0.06534767012102327</v>
       </c>
       <c r="J6">
-        <v>0.03346604306305638</v>
+        <v>0.06534767012102327</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="N6">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="O6">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="P6">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="Q6">
-        <v>109.1170617009503</v>
+        <v>0.007752454803</v>
       </c>
       <c r="R6">
-        <v>982.0535553085531</v>
+        <v>0.069772093227</v>
       </c>
       <c r="S6">
-        <v>0.01249307293413338</v>
+        <v>7.195686209412589E-05</v>
       </c>
       <c r="T6">
-        <v>0.01249307293413338</v>
+        <v>7.195686209412588E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.719635666666667</v>
+        <v>0.120231</v>
       </c>
       <c r="H7">
-        <v>5.158907</v>
+        <v>0.360693</v>
       </c>
       <c r="I7">
-        <v>0.03346604306305637</v>
+        <v>0.06534767012102327</v>
       </c>
       <c r="J7">
-        <v>0.03346604306305638</v>
+        <v>0.06534767012102327</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,22 +871,22 @@
         <v>1.155386</v>
       </c>
       <c r="O7">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="P7">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="Q7">
-        <v>0.6622809914557778</v>
+        <v>0.04630440472199999</v>
       </c>
       <c r="R7">
-        <v>5.960528923102</v>
+        <v>0.416739642498</v>
       </c>
       <c r="S7">
-        <v>7.582613204727761E-05</v>
+        <v>0.0004297889829221807</v>
       </c>
       <c r="T7">
-        <v>7.582613204727763E-05</v>
+        <v>0.0004297889829221808</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.719635666666667</v>
+        <v>0.120231</v>
       </c>
       <c r="H8">
-        <v>5.158907</v>
+        <v>0.360693</v>
       </c>
       <c r="I8">
-        <v>0.03346604306305637</v>
+        <v>0.06534767012102327</v>
       </c>
       <c r="J8">
-        <v>0.03346604306305638</v>
+        <v>0.06534767012102327</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="N8">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="O8">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="P8">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="Q8">
-        <v>0.03635481762900001</v>
+        <v>0.0009828884249999999</v>
       </c>
       <c r="R8">
-        <v>0.327193358661</v>
+        <v>0.008845995824999999</v>
       </c>
       <c r="S8">
-        <v>4.162349875136524E-06</v>
+        <v>9.122989897892551E-06</v>
       </c>
       <c r="T8">
-        <v>4.162349875136525E-06</v>
+        <v>9.122989897892551E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.719635666666667</v>
+        <v>0.120231</v>
       </c>
       <c r="H9">
-        <v>5.158907</v>
+        <v>0.360693</v>
       </c>
       <c r="I9">
-        <v>0.03346604306305637</v>
+        <v>0.06534767012102327</v>
       </c>
       <c r="J9">
-        <v>0.03346604306305638</v>
+        <v>0.06534767012102327</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="N9">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="O9">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="P9">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="Q9">
-        <v>182.483587465803</v>
+        <v>6.985357016877</v>
       </c>
       <c r="R9">
-        <v>1642.352287192227</v>
+        <v>62.868213151893</v>
       </c>
       <c r="S9">
-        <v>0.02089298164700058</v>
+        <v>0.06483680128610908</v>
       </c>
       <c r="T9">
-        <v>0.02089298164700058</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>16.56216866666666</v>
-      </c>
-      <c r="H10">
-        <v>49.68650599999999</v>
-      </c>
-      <c r="I10">
-        <v>0.3223184192792792</v>
-      </c>
-      <c r="J10">
-        <v>0.3223184192792793</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>63.45359300000001</v>
-      </c>
-      <c r="N10">
-        <v>190.360779</v>
-      </c>
-      <c r="O10">
-        <v>0.3733059480797913</v>
-      </c>
-      <c r="P10">
-        <v>0.3733059480797913</v>
-      </c>
-      <c r="Q10">
-        <v>1050.929109772019</v>
-      </c>
-      <c r="R10">
-        <v>9458.361987948174</v>
-      </c>
-      <c r="S10">
-        <v>0.120323383092631</v>
-      </c>
-      <c r="T10">
-        <v>0.120323383092631</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>16.56216866666666</v>
-      </c>
-      <c r="H11">
-        <v>49.68650599999999</v>
-      </c>
-      <c r="I11">
-        <v>0.3223184192792792</v>
-      </c>
-      <c r="J11">
-        <v>0.3223184192792793</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.3851286666666667</v>
-      </c>
-      <c r="N11">
-        <v>1.155386</v>
-      </c>
-      <c r="O11">
-        <v>0.002265763296377967</v>
-      </c>
-      <c r="P11">
-        <v>0.002265763296377967</v>
-      </c>
-      <c r="Q11">
-        <v>6.378565935701777</v>
-      </c>
-      <c r="R11">
-        <v>57.40709342131599</v>
-      </c>
-      <c r="S11">
-        <v>0.0007302972441495555</v>
-      </c>
-      <c r="T11">
-        <v>0.0007302972441495556</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>16.56216866666666</v>
-      </c>
-      <c r="H12">
-        <v>49.68650599999999</v>
-      </c>
-      <c r="I12">
-        <v>0.3223184192792792</v>
-      </c>
-      <c r="J12">
-        <v>0.3223184192792793</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.021141</v>
-      </c>
-      <c r="N12">
-        <v>0.06342300000000001</v>
-      </c>
-      <c r="O12">
-        <v>0.0001243753217939112</v>
-      </c>
-      <c r="P12">
-        <v>0.0001243753217939112</v>
-      </c>
-      <c r="Q12">
-        <v>0.350140807782</v>
-      </c>
-      <c r="R12">
-        <v>3.151267270038</v>
-      </c>
-      <c r="S12">
-        <v>4.008845711796513E-05</v>
-      </c>
-      <c r="T12">
-        <v>4.008845711796514E-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>16.56216866666666</v>
-      </c>
-      <c r="H13">
-        <v>49.68650599999999</v>
-      </c>
-      <c r="I13">
-        <v>0.3223184192792792</v>
-      </c>
-      <c r="J13">
-        <v>0.3223184192792793</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>106.117587</v>
-      </c>
-      <c r="N13">
-        <v>318.352761</v>
-      </c>
-      <c r="O13">
-        <v>0.6243039133020368</v>
-      </c>
-      <c r="P13">
-        <v>0.6243039133020368</v>
-      </c>
-      <c r="Q13">
-        <v>1757.537374393674</v>
-      </c>
-      <c r="R13">
-        <v>15817.83636954306</v>
-      </c>
-      <c r="S13">
-        <v>0.2012246504853807</v>
-      </c>
-      <c r="T13">
-        <v>0.2012246504853807</v>
+        <v>0.06483680128610908</v>
       </c>
     </row>
   </sheetData>
